--- a/数据模版，要跟软件配合使用/航空器-小型TYA.xlsx
+++ b/数据模版，要跟软件配合使用/航空器-小型TYA.xlsx
@@ -257,7 +257,7 @@
     <t>DJI M600</t>
   </si>
   <si>
-    <t>珠海金凤路</t>
+    <t>海边</t>
   </si>
   <si>
     <t>夜间</t>
@@ -1388,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83185840707965" defaultRowHeight="13.85"/>
